--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA48138-37EF-44A4-BE9A-5A668FAFF384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0EE29-6317-44A8-87ED-2733A4D15044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="3090" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_64_128000_10</t>
   </si>
@@ -72,22 +72,37 @@
     <t>tai_mean</t>
   </si>
   <si>
-    <t>ramdon</t>
-  </si>
-  <si>
-    <t>best improvement</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
     <t>L2D</t>
   </si>
   <si>
-    <t>schedulenet</t>
-  </si>
-  <si>
     <t>GNN-RL (Park IJPR2021)</t>
+  </si>
+  <si>
+    <t>syn15x15</t>
+  </si>
+  <si>
+    <t>syn20x20</t>
+  </si>
+  <si>
+    <t>syn30x20</t>
+  </si>
+  <si>
+    <t>syn_mean</t>
+  </si>
+  <si>
+    <t>TABU</t>
+  </si>
+  <si>
+    <t>First Improvement</t>
+  </si>
+  <si>
+    <t>Best improvement</t>
+  </si>
+  <si>
+    <t>Ramdon</t>
+  </si>
+  <si>
+    <t>Schedulenet</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,23 +154,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,625 +465,775 @@
     <col min="1" max="1" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.22309999999999999</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G2" s="7">
+        <f>AVERAGE(C2:F2)</f>
+        <v>0.26802500000000001</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.2601</v>
       </c>
-      <c r="F2" s="4">
+      <c r="K2" s="3">
         <v>0.30220000000000002</v>
       </c>
-      <c r="G2" s="4">
+      <c r="L2" s="3">
         <v>0.3165</v>
       </c>
-      <c r="H2" s="4">
+      <c r="M2" s="3">
         <v>0.33110000000000001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="N2" s="3">
         <v>0.33660000000000001</v>
       </c>
-      <c r="J2" s="4">
+      <c r="O2" s="3">
         <v>0.22470000000000001</v>
       </c>
-      <c r="K2" s="4">
+      <c r="P2" s="3">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L2" s="5">
-        <f>AVERAGE(D2:K2)</f>
+      <c r="Q2" s="4">
+        <f>AVERAGE(I2:P2)</f>
         <v>0.28796249999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="J3" s="3">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="K3" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="L3" s="3">
         <v>0.189</v>
       </c>
-      <c r="H3" s="4">
+      <c r="M3" s="3">
         <v>0.254</v>
       </c>
-      <c r="I3" s="4">
+      <c r="N3" s="3">
         <v>0.159</v>
       </c>
-      <c r="J3" s="4">
+      <c r="O3" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="P3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L3" s="5">
-        <f>AVERAGE(D3:K3)</f>
+      <c r="Q3" s="4">
+        <f>AVERAGE(I3:P3)</f>
         <v>0.18087500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3">
         <v>0.153</v>
       </c>
-      <c r="E4" s="4">
+      <c r="J4" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="K4" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="L4" s="3">
         <v>0.18</v>
       </c>
-      <c r="H4" s="4">
+      <c r="M4" s="3">
         <v>0.187</v>
       </c>
-      <c r="I4" s="4">
+      <c r="N4" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="O4" s="3">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="P4" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L4" s="5">
-        <f>AVERAGE(D4:K4)</f>
+      <c r="Q4" s="4">
+        <f>AVERAGE(I4:P4)</f>
         <v>0.15312500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
         <v>500</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6.4761865432645171E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3">
         <v>0.13688711602378539</v>
       </c>
-      <c r="E5" s="4">
+      <c r="J5" s="3">
         <v>0.14166088738559399</v>
       </c>
-      <c r="F5" s="4">
+      <c r="K5" s="3">
         <v>0.1598100151558659</v>
       </c>
-      <c r="G5" s="4">
+      <c r="L5" s="3">
         <v>0.16159056949776701</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="6">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="N5" s="3">
         <v>0.10443781416783531</v>
       </c>
-      <c r="J5" s="4">
+      <c r="O5" s="3">
         <v>0.13347989582149281</v>
       </c>
-      <c r="K5" s="4">
+      <c r="P5" s="3">
         <v>6.9684492109871168E-2</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" ref="L3:L19" si="0">AVERAGE(D5:K5)</f>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q22" si="0">AVERAGE(I5:P5)</f>
         <v>0.13994384877027644</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5.4245447183507253E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3">
         <v>0.1239270127592192</v>
       </c>
-      <c r="E6" s="4">
+      <c r="J6" s="3">
         <v>0.13076665587687061</v>
       </c>
-      <c r="F6" s="4">
+      <c r="K6" s="3">
         <v>0.14760589447770911</v>
       </c>
-      <c r="G6" s="4">
+      <c r="L6" s="3">
         <v>0.14201630857310801</v>
       </c>
-      <c r="H6" s="7">
+      <c r="M6" s="6">
         <v>0.18522</v>
       </c>
-      <c r="I6" s="4">
+      <c r="N6" s="3">
         <v>8.4659632275924407E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="O6" s="3">
         <v>0.1160838308532421</v>
       </c>
-      <c r="K6" s="4">
+      <c r="P6" s="3">
         <v>5.4501220071836332E-2</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q6" s="4">
+        <f>AVERAGE(I6:P6)</f>
         <v>0.12309756936098873</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4.6422633774552538E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3">
         <v>0.1050443467852758</v>
       </c>
-      <c r="E7" s="4">
+      <c r="J7" s="3">
         <v>0.11610475192718191</v>
       </c>
-      <c r="F7" s="4">
+      <c r="K7" s="3">
         <v>0.1427892837570599</v>
       </c>
-      <c r="G7" s="4">
+      <c r="L7" s="3">
         <v>0.1223589494365398</v>
       </c>
-      <c r="H7" s="7">
+      <c r="M7" s="6">
         <v>0.16964000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="N7" s="3">
         <v>6.3550861874559078E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="O7" s="3">
         <v>9.4201676253653582E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="P7" s="3">
         <v>3.6751807155286573E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>0.10630520964869458</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3.5342664440224207E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3">
         <v>7.5060378575190295E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="J8" s="3">
         <v>9.5576566423238279E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="K8" s="3">
         <v>9.5042090819800223E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="L8" s="3">
         <v>0.15015819804763289</v>
       </c>
-      <c r="H8" s="7">
+      <c r="M8" s="6">
         <v>0.15554999999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="N8" s="3">
         <v>9.5992092848552785E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="O8" s="3">
         <v>0.11002205723648149</v>
       </c>
-      <c r="K8" s="4">
+      <c r="P8" s="3">
         <v>6.2987731738569364E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>0.10504863946118317</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3.1441507074241162E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
         <v>6.2918757652814239E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="J9" s="3">
         <v>9.0800495453678173E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="K9" s="3">
         <v>8.1518245526609412E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="L9" s="3">
         <v>0.1224445226875083</v>
       </c>
-      <c r="H9" s="7">
+      <c r="M9" s="6">
         <v>0.13542999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="N9" s="3">
         <v>8.7989755185643365E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="O9" s="3">
         <v>9.9799436468565761E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="P9" s="3">
         <v>4.8776938486307993E-2</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="4">
+        <f>AVERAGE(I9:P9)</f>
         <v>9.1209768932640919E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>2000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>3.1289883051820649E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3">
         <v>5.3326321728132453E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="J10" s="3">
         <v>8.0211340873238432E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="K10" s="3">
         <v>7.9552882005758413E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="L10" s="3">
         <v>0.13044688553761841</v>
       </c>
-      <c r="H10" s="7">
+      <c r="M10" s="6">
         <v>0.13653999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="N10" s="3">
         <v>8.9122340895006563E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="O10" s="3">
         <v>8.620059030379669E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="P10" s="3">
         <v>4.3658381259155027E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
         <v>8.7382342825338244E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>500</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B17" s="2">
         <v>500</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17" s="3">
         <v>4.5650341633021632E-2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3">
         <v>0.1027442400713823</v>
       </c>
-      <c r="E14" s="4">
+      <c r="J17" s="3">
         <v>0.13603323923901059</v>
       </c>
-      <c r="F14" s="4">
+      <c r="K17" s="3">
         <v>0.13409414957156821</v>
       </c>
-      <c r="G14" s="4">
+      <c r="L17" s="3">
         <v>0.15968902076896149</v>
       </c>
-      <c r="H14" s="4">
+      <c r="M17" s="3">
         <v>0.19023290188008249</v>
       </c>
-      <c r="I14" s="4">
+      <c r="N17" s="3">
         <v>0.10542920169183349</v>
       </c>
-      <c r="J14" s="4">
+      <c r="O17" s="3">
         <v>0.1398381983320818</v>
       </c>
-      <c r="K14" s="4">
+      <c r="P17" s="3">
         <v>7.4204162353651501E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="Q17" s="4">
         <f t="shared" si="0"/>
         <v>0.13028313923857149</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2">
         <v>1000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C18" s="3">
         <v>3.678296524282141E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3">
         <v>8.4809819040615825E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="J18" s="3">
         <v>0.116225369532429</v>
       </c>
-      <c r="F15" s="4">
+      <c r="K18" s="3">
         <v>0.1250528798756797</v>
       </c>
-      <c r="G15" s="4">
+      <c r="L18" s="3">
         <v>0.14066312110482501</v>
       </c>
-      <c r="H15" s="4">
+      <c r="M18" s="3">
         <v>0.16767587071265519</v>
       </c>
-      <c r="I15" s="4">
+      <c r="N18" s="3">
         <v>8.433600218878741E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="O18" s="3">
         <v>0.12166724013207</v>
       </c>
-      <c r="K15" s="4">
+      <c r="P18" s="3">
         <v>5.94024400109497E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
         <v>0.11247909282475149</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2">
         <v>2000</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C19" s="3">
         <v>2.8504649437409321E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3">
         <v>7.9847332661565379E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="J19" s="3">
         <v>9.7779695835121763E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="K19" s="3">
         <v>0.11341990095265039</v>
       </c>
-      <c r="G16" s="4">
+      <c r="L19" s="3">
         <v>0.1237588669737732</v>
       </c>
-      <c r="H16" s="4">
+      <c r="M19" s="3">
         <v>0.15310714407943921</v>
       </c>
-      <c r="I16" s="4">
+      <c r="N19" s="3">
         <v>6.4906220032568254E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="O19" s="3">
         <v>0.1028722899586553</v>
       </c>
-      <c r="K16" s="4">
+      <c r="P19" s="3">
         <v>4.2470000000000001E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="Q19" s="4">
         <f t="shared" si="0"/>
         <v>9.7270181311721687E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B20" s="2">
         <v>500</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C20" s="3">
         <v>4.8140242424167902E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3">
         <v>9.6935614023452701E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="J20" s="3">
         <v>0.12698551574550601</v>
       </c>
-      <c r="F17" s="4">
+      <c r="K20" s="3">
         <v>0.131971832983177</v>
       </c>
-      <c r="G17" s="4">
+      <c r="L20" s="3">
         <v>0.16369584871678</v>
       </c>
-      <c r="H17" s="4">
+      <c r="M20" s="3">
         <v>0.18820630620113901</v>
       </c>
-      <c r="I17" s="4">
+      <c r="N20" s="3">
         <v>0.105261165464648</v>
       </c>
-      <c r="J17" s="4">
+      <c r="O20" s="3">
         <v>0.13390652866712</v>
       </c>
-      <c r="K17" s="4">
+      <c r="P20" s="3">
         <v>7.4562252560505998E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="Q20" s="4">
         <f t="shared" si="0"/>
         <v>0.1276906330452911</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2">
         <v>1000</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21" s="3">
         <v>3.9086410125340899E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3">
         <v>8.49178592392133E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="J21" s="3">
         <v>0.11318996596886099</v>
       </c>
-      <c r="F18" s="4">
+      <c r="K21" s="3">
         <v>0.123735257115799</v>
       </c>
-      <c r="G18" s="4">
+      <c r="L21" s="3">
         <v>0.13892913595886899</v>
       </c>
-      <c r="H18" s="4">
+      <c r="M21" s="3">
         <v>0.167850139077177</v>
       </c>
-      <c r="I18" s="4">
+      <c r="N21" s="3">
         <v>8.8043357752072796E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="O21" s="3">
         <v>0.114123167560334</v>
       </c>
-      <c r="K18" s="4">
+      <c r="P21" s="3">
         <v>5.7286615790839303E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="Q21" s="4">
         <f t="shared" si="0"/>
         <v>0.11100943730789567</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2">
         <v>2000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C22" s="3">
         <v>3.2181192945040203E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3">
         <v>7.9539623043063098E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="J22" s="3">
         <v>9.9418353824669098E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="K22" s="3">
         <v>0.114959152108145</v>
       </c>
-      <c r="G19" s="4">
+      <c r="L22" s="3">
         <v>0.121379112945593</v>
       </c>
-      <c r="H19" s="4">
+      <c r="M22" s="3">
         <v>0.14855342534527</v>
       </c>
-      <c r="I19" s="4">
+      <c r="N22" s="3">
         <v>6.62676587801386E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="O22" s="3">
         <v>9.4182995651787102E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="P22" s="3">
         <v>3.9116685869359701E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="Q22" s="4">
         <f t="shared" si="0"/>
         <v>9.5427125946003194E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="6">
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0EE29-6317-44A8-87ED-2733A4D15044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034713B-60BD-4EBE-9D07-5A30822B622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="3090" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,22 +1114,22 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="3">
-        <v>9.6935614023452701E-2</v>
+        <v>9.8782015061571402E-2</v>
       </c>
       <c r="J20" s="3">
-        <v>0.12698551574550601</v>
+        <v>0.12579296969763501</v>
       </c>
       <c r="K20" s="3">
-        <v>0.131971832983177</v>
+        <v>0.13442183536750399</v>
       </c>
       <c r="L20" s="3">
-        <v>0.16369584871678</v>
+        <v>0.16357634962783199</v>
       </c>
       <c r="M20" s="3">
-        <v>0.18820630620113901</v>
+        <v>0.18475598446969899</v>
       </c>
       <c r="N20" s="3">
-        <v>0.105261165464648</v>
+        <v>0.10569892292472199</v>
       </c>
       <c r="O20" s="3">
         <v>0.13390652866712</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="0"/>
-        <v>0.1276906330452911</v>
+        <v>0.12768710729707367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1156,22 +1156,22 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="3">
-        <v>8.49178592392133E-2</v>
+        <v>8.6640319683791503E-2</v>
       </c>
       <c r="J21" s="3">
-        <v>0.11318996596886099</v>
+        <v>0.107113851376318</v>
       </c>
       <c r="K21" s="3">
-        <v>0.123735257115799</v>
+        <v>0.121329734313677</v>
       </c>
       <c r="L21" s="3">
-        <v>0.13892913595886899</v>
+        <v>0.144448140843044</v>
       </c>
       <c r="M21" s="3">
-        <v>0.167850139077177</v>
+        <v>0.16381226712976699</v>
       </c>
       <c r="N21" s="3">
-        <v>8.8043357752072796E-2</v>
+        <v>8.1701023548128304E-2</v>
       </c>
       <c r="O21" s="3">
         <v>0.114123167560334</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="0"/>
-        <v>0.11100943730789567</v>
+        <v>0.10955689003073739</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1198,19 +1198,19 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="3">
-        <v>7.9539623043063098E-2</v>
+        <v>7.9406253676062105E-2</v>
       </c>
       <c r="J22" s="3">
-        <v>9.9418353824669098E-2</v>
+        <v>9.6782099230612206E-2</v>
       </c>
       <c r="K22" s="3">
-        <v>0.114959152108145</v>
+        <v>0.11300698856017501</v>
       </c>
       <c r="L22" s="3">
-        <v>0.121379112945593</v>
+        <v>0.118027753394549</v>
       </c>
       <c r="M22" s="3">
-        <v>0.14855342534527</v>
+        <v>0.148057797428645</v>
       </c>
       <c r="N22" s="3">
         <v>6.62676587801386E-2</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="0"/>
-        <v>9.5427125946003194E-2</v>
+        <v>9.4356029073916103E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034713B-60BD-4EBE-9D07-5A30822B622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253CCC81-4E63-4177-9114-23AEB890C93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I20" sqref="I20:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,14 +1132,14 @@
         <v>0.10569892292472199</v>
       </c>
       <c r="O20" s="3">
-        <v>0.13390652866712</v>
+        <v>0.13474351274165799</v>
       </c>
       <c r="P20" s="3">
-        <v>7.4562252560505998E-2</v>
+        <v>7.5411753249014293E-2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="0"/>
-        <v>0.12768710729707367</v>
+        <v>0.12789791789245444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1174,14 +1174,14 @@
         <v>8.1701023548128304E-2</v>
       </c>
       <c r="O21" s="3">
-        <v>0.114123167560334</v>
+        <v>0.10898353184475</v>
       </c>
       <c r="P21" s="3">
-        <v>5.7286615790839303E-2</v>
+        <v>5.7606832574372199E-2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="0"/>
-        <v>0.10955689003073739</v>
+        <v>0.10895446266423099</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1213,17 +1213,17 @@
         <v>0.148057797428645</v>
       </c>
       <c r="N22" s="3">
-        <v>6.62676587801386E-2</v>
+        <v>6.3913229271664193E-2</v>
       </c>
       <c r="O22" s="3">
-        <v>9.4182995651787102E-2</v>
+        <v>9.2866162952603401E-2</v>
       </c>
       <c r="P22" s="3">
-        <v>3.9116685869359701E-2</v>
+        <v>3.9777350774549698E-2</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="0"/>
-        <v>9.4356029073916103E-2</v>
+        <v>9.397970441110759E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253CCC81-4E63-4177-9114-23AEB890C93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924F1F3-55E8-4518-BD44-3BA4132446FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_64_128000_10</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Schedulenet</t>
+  </si>
+  <si>
+    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_128_128000_5</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I22"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,8 +1229,74 @@
         <v>9.397970441110759E-2</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>500</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924F1F3-55E8-4518-BD44-3BA4132446FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -178,8 +177,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,5 +1304,6 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499D75B-4EB4-41E2-86CC-2C304922F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770"/>
+    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_64_128000_10</t>
-  </si>
-  <si>
     <t>syn10x10</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>tai100x20</t>
   </si>
   <si>
-    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_256_128000_10</t>
-  </si>
-  <si>
     <t>tai_mean</t>
   </si>
   <si>
@@ -104,13 +99,19 @@
     <t>Schedulenet</t>
   </si>
   <si>
-    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_5e-05_10_500_128_128000_5</t>
+    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_NAN_5e-05_10_500_256_128000_10</t>
+  </si>
+  <si>
+    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_NAN_5e-05_10_500_64_128000_10</t>
+  </si>
+  <si>
+    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin+dghan_1_0_5e-05_10_500_64_128000_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -177,8 +178,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,66 +456,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.28515625" customWidth="1"/>
+    <col min="1" max="1" width="102.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>0.22309999999999999</v>
@@ -564,7 +565,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="7"/>
@@ -603,7 +604,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
@@ -642,7 +643,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
@@ -770,7 +771,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
@@ -898,7 +899,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -936,7 +937,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>500</v>
@@ -974,7 +975,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
@@ -1102,7 +1103,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>500</v>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499D75B-4EB4-41E2-86CC-2C304922F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B98EF-F6D6-4BFC-A634-05C03E9E6641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="3360" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="3120" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="P24" sqref="P24:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,9 +980,7 @@
       <c r="B17" s="2">
         <v>500</v>
       </c>
-      <c r="C17" s="3">
-        <v>4.5650341633021632E-2</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1022,9 +1020,7 @@
       <c r="B18" s="2">
         <v>1000</v>
       </c>
-      <c r="C18" s="3">
-        <v>3.678296524282141E-2</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1064,9 +1060,7 @@
       <c r="B19" s="2">
         <v>2000</v>
       </c>
-      <c r="C19" s="3">
-        <v>2.8504649437409321E-2</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1108,9 +1102,7 @@
       <c r="B20" s="2">
         <v>500</v>
       </c>
-      <c r="C20" s="3">
-        <v>4.8140242424167902E-2</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1150,9 +1142,7 @@
       <c r="B21" s="2">
         <v>1000</v>
       </c>
-      <c r="C21" s="3">
-        <v>3.9086410125340899E-2</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1192,9 +1182,7 @@
       <c r="B22" s="2">
         <v>2000</v>
       </c>
-      <c r="C22" s="3">
-        <v>3.2181192945040203E-2</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1242,14 +1230,30 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="I23" s="3">
+        <v>9.5462888605269594E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.123304</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.129631</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.19096299999999999</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.10859099999999999</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.13170399999999999</v>
+      </c>
+      <c r="P23" s="3">
+        <v>7.0632E-2</v>
+      </c>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1263,14 +1267,30 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="I24" s="3">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.113194</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.116268</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.13111600000000001</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.17562700000000001</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9.0360999999999997E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.11490499999999999</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5.3909260680643001E-2</v>
+      </c>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1284,14 +1304,30 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="I25" s="3">
+        <v>7.3578000000000005E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>9.955E-2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.102479</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.105418</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.15958600000000001</v>
+      </c>
+      <c r="N25" s="3">
+        <v>6.4596000000000001E-2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>9.4871999999999998E-2</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.7740341231119003E-2</v>
+      </c>
       <c r="Q25" s="4"/>
     </row>
   </sheetData>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B98EF-F6D6-4BFC-A634-05C03E9E6641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F44B8-71CB-457B-BF9D-0ECE0C3176CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="3120" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P25"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1289,7 @@
         <v>0.11490499999999999</v>
       </c>
       <c r="P24" s="3">
-        <v>5.3909260680643001E-2</v>
+        <v>5.3969999999999997E-2</v>
       </c>
       <c r="Q24" s="4"/>
     </row>
@@ -1326,7 +1326,7 @@
         <v>9.4871999999999998E-2</v>
       </c>
       <c r="P25" s="3">
-        <v>3.7740341231119003E-2</v>
+        <v>3.721E-2</v>
       </c>
       <c r="Q25" s="4"/>
     </row>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F44B8-71CB-457B-BF9D-0ECE0C3176CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="3120" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="3120" windowWidth="28800" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -178,8 +177,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,126 +647,63 @@
       <c r="B5" s="2">
         <v>500</v>
       </c>
-      <c r="C5" s="3">
-        <v>6.4761865432645171E-2</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="3">
-        <v>0.13688711602378539</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.14166088738559399</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.1598100151558659</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.16159056949776701</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.10443781416783531</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.13347989582149281</v>
-      </c>
-      <c r="P5" s="3">
-        <v>6.9684492109871168E-2</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q22" si="0">AVERAGE(I5:P5)</f>
-        <v>0.13994384877027644</v>
-      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6" s="3">
-        <v>5.4245447183507253E-2</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="3">
-        <v>0.1239270127592192</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.13076665587687061</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.14760589447770911</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.14201630857310801</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.18522</v>
-      </c>
-      <c r="N6" s="3">
-        <v>8.4659632275924407E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.1160838308532421</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5.4501220071836332E-2</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>AVERAGE(I6:P6)</f>
-        <v>0.12309756936098873</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7" s="3">
-        <v>4.6422633774552538E-2</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="3">
-        <v>0.1050443467852758</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.11610475192718191</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.1427892837570599</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.1223589494365398</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.16964000000000001</v>
-      </c>
-      <c r="N7" s="3">
-        <v>6.3550861874559078E-2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>9.4201676253653582E-2</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3.6751807155286573E-2</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10630520964869458</v>
-      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -776,126 +712,63 @@
       <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="C8" s="3">
-        <v>3.5342664440224207E-2</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="3">
-        <v>7.5060378575190295E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9.5576566423238279E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9.5042090819800223E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.15015819804763289</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.15554999999999999</v>
-      </c>
-      <c r="N8" s="3">
-        <v>9.5992092848552785E-2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.11002205723648149</v>
-      </c>
-      <c r="P8" s="3">
-        <v>6.2987731738569364E-2</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10504863946118317</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="3">
-        <v>3.1441507074241162E-2</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="3">
-        <v>6.2918757652814239E-2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9.0800495453678173E-2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>8.1518245526609412E-2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.1224445226875083</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.13542999999999999</v>
-      </c>
-      <c r="N9" s="3">
-        <v>8.7989755185643365E-2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9.9799436468565761E-2</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4.8776938486307993E-2</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>AVERAGE(I9:P9)</f>
-        <v>9.1209768932640919E-2</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>2000</v>
       </c>
-      <c r="C10" s="3">
-        <v>3.1289883051820649E-2</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3">
-        <v>5.3326321728132453E-2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>8.0211340873238432E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7.9552882005758413E-2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.13044688553761841</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.13653999999999999</v>
-      </c>
-      <c r="N10" s="3">
-        <v>8.9122340895006563E-2</v>
-      </c>
-      <c r="O10" s="3">
-        <v>8.620059030379669E-2</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4.3658381259155027E-2</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.7382342825338244E-2</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -986,34 +859,15 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="3">
-        <v>0.1027442400713823</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.13603323923901059</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.13409414957156821</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.15968902076896149</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.19023290188008249</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.10542920169183349</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.1398381983320818</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7.4204162353651501E-2</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13028313923857149</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1026,34 +880,15 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="3">
-        <v>8.4809819040615825E-2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.116225369532429</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.1250528798756797</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.14066312110482501</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.16767587071265519</v>
-      </c>
-      <c r="N18" s="3">
-        <v>8.433600218878741E-2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.12166724013207</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5.94024400109497E-2</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11247909282475149</v>
-      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1066,34 +901,15 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="3">
-        <v>7.9847332661565379E-2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>9.7779695835121763E-2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.11341990095265039</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.1237588669737732</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.15310714407943921</v>
-      </c>
-      <c r="N19" s="3">
-        <v>6.4906220032568254E-2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0.1028722899586553</v>
-      </c>
-      <c r="P19" s="3">
-        <v>4.2470000000000001E-2</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="0"/>
-        <v>9.7270181311721687E-2</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1108,34 +924,15 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="3">
-        <v>9.8782015061571402E-2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.12579296969763501</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.13442183536750399</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.16357634962783199</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.18475598446969899</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.10569892292472199</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.13474351274165799</v>
-      </c>
-      <c r="P20" s="3">
-        <v>7.5411753249014293E-2</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12789791789245444</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1148,34 +945,15 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="3">
-        <v>8.6640319683791503E-2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.107113851376318</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.121329734313677</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.144448140843044</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.16381226712976699</v>
-      </c>
-      <c r="N21" s="3">
-        <v>8.1701023548128304E-2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.10898353184475</v>
-      </c>
-      <c r="P21" s="3">
-        <v>5.7606832574372199E-2</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10895446266423099</v>
-      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1188,34 +966,15 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="3">
-        <v>7.9406253676062105E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9.6782099230612206E-2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.11300698856017501</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.118027753394549</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.148057797428645</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6.3913229271664193E-2</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9.2866162952603401E-2</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3.9777350774549698E-2</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="0"/>
-        <v>9.397970441110759E-2</v>
-      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1254,7 +1013,10 @@
       <c r="P23" s="3">
         <v>7.0632E-2</v>
       </c>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4">
+        <f>AVERAGE(I23:P23)</f>
+        <v>0.12613223607565871</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1291,7 +1053,10 @@
       <c r="P24" s="3">
         <v>5.3969999999999997E-2</v>
       </c>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="4">
+        <f t="shared" ref="Q24:Q25" si="0">AVERAGE(I24:P24)</f>
+        <v>0.11016137500000001</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1328,7 +1093,10 @@
       <c r="P25" s="3">
         <v>3.721E-2</v>
       </c>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2161124999999983E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,15 +162,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,7 +452,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,21 +512,21 @@
       <c r="C2" s="3">
         <v>0.22309999999999999</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <f>AVERAGE(C2:F2)</f>
         <v>0.26802500000000001</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>0.26700000000000002</v>
       </c>
       <c r="J2" s="3">
@@ -557,21 +550,21 @@
       <c r="P2" s="3">
         <v>0.26550000000000001</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <f>AVERAGE(I2:P2)</f>
         <v>0.28796249999999995</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>0.17100000000000001</v>
       </c>
@@ -596,7 +589,7 @@
       <c r="P3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <f>AVERAGE(I3:P3)</f>
         <v>0.18087500000000001</v>
       </c>
@@ -606,11 +599,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>0.153</v>
       </c>
@@ -635,230 +628,311 @@
       <c r="P4" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <f>AVERAGE(I4:P4)</f>
         <v>0.15312500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="3">
+        <v>6.4761869999999999E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.12488682</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="3">
+        <v>5.4245450000000001E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.11235870000000001</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="3">
+        <v>4.6422629999999999E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.10256036</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="3">
+        <v>3.2976110000000003E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.0071949999999994E-2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="3">
+        <v>2.9983530000000001E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.097064E-2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2">
         <v>2000</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="3">
+        <v>2.768058E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.418485E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="Q11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="Q12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="Q13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>500</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="Q14" s="4"/>
+      <c r="C14" s="3">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2">
         <v>1000</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="Q15" s="4"/>
+      <c r="C15" s="3">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2">
         <v>2000</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="Q16" s="4"/>
+      <c r="C16" s="3">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -867,19 +941,19 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2">
         <v>1000</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -888,19 +962,19 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2">
         <v>2000</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -909,21 +983,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>500</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -932,19 +1006,19 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2">
         <v>1000</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -953,19 +1027,19 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2">
         <v>2000</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -974,21 +1048,21 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3">
         <v>9.5462888605269594E-2</v>
       </c>
@@ -1013,22 +1087,22 @@
       <c r="P23" s="3">
         <v>7.0632E-2</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <f>AVERAGE(I23:P23)</f>
         <v>0.12613223607565871</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2">
         <v>1000</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
         <v>8.5849999999999996E-2</v>
       </c>
@@ -1053,22 +1127,22 @@
       <c r="P24" s="3">
         <v>5.3969999999999997E-2</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <f t="shared" ref="Q24:Q25" si="0">AVERAGE(I24:P24)</f>
         <v>0.11016137500000001</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2">
         <v>2000</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
         <v>7.3578000000000005E-2</v>
       </c>
@@ -1093,7 +1167,7 @@
       <c r="P25" s="3">
         <v>3.721E-2</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <f t="shared" si="0"/>
         <v>9.2161124999999983E-2</v>
       </c>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +859,9 @@
       <c r="C14" s="3">
         <v>6.5181710000000004E-2</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -882,7 +884,9 @@
       <c r="C15" s="3">
         <v>6.5181710000000004E-2</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -905,7 +909,9 @@
       <c r="C16" s="3">
         <v>6.5181710000000004E-2</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,9 @@
       <c r="D5" s="3">
         <v>0.12488682</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>0.16112079000000001</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -671,7 +673,9 @@
       <c r="D6" s="3">
         <v>0.11235870000000001</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>0.14983775999999999</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -696,7 +700,9 @@
       <c r="D7" s="3">
         <v>0.10256036</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0.13815110999999999</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A5BDFA-5658-43E5-8BE2-C52462B6E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="3120" windowWidth="28800" windowHeight="16770"/>
+    <workbookView xWindow="3525" yWindow="4080" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>syn10x10</t>
   </si>
@@ -96,9 +97,6 @@
   </si>
   <si>
     <t>Schedulenet</t>
-  </si>
-  <si>
-    <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_NAN_5e-05_10_500_256_128000_10</t>
   </si>
   <si>
     <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin_NAN_5e-05_10_500_64_128000_10</t>
@@ -110,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -170,8 +168,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,63 +937,126 @@
       <c r="B17" s="2">
         <v>500</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>4.5740999999999997E-2</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="I17" s="3">
+        <v>0.10166699999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.13650899999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.138818</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.162855</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.194776</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.10628600000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.13186200000000001</v>
+      </c>
+      <c r="P17" s="3">
+        <v>7.6374999999999998E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>AVERAGE(I17:P17)</f>
+        <v>0.13114350000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="2">
         <v>1000</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>3.9321000000000002E-2</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="I18" s="3">
+        <v>8.7012000000000006E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.11302</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.120848</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.134412</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.176898</v>
+      </c>
+      <c r="N18" s="3">
+        <v>8.3945000000000006E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.113331</v>
+      </c>
+      <c r="P18" s="3">
+        <v>5.9744999999999999E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18:Q19" si="0">AVERAGE(I18:P18)</f>
+        <v>0.11115137500000001</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="2">
         <v>2000</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>3.1038E-2</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="I19" s="3">
+        <v>7.7551999999999996E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.10136100000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.11282399999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.11575199999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.157559</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6.4685000000000006E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>9.6091999999999997E-2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>4.2016999999999999E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5980249999999989E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1004,193 +1065,133 @@
       <c r="B20" s="2">
         <v>500</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>4.0811E-2</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="I20" s="3">
+        <v>9.5462888605269594E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.123304</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.129631</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.19096299999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.10859099999999999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.13170399999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <v>7.0632E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>AVERAGE(I20:P20)</f>
+        <v>0.12613223607565871</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="2">
         <v>1000</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>3.3570999999999997E-2</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="I21" s="3">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.113194</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.116268</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.13111600000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.17562700000000001</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9.0360999999999997E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.11490499999999999</v>
+      </c>
+      <c r="P21" s="3">
+        <v>5.3969999999999997E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" ref="Q21:Q22" si="1">AVERAGE(I21:P21)</f>
+        <v>0.11016137500000001</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="2">
         <v>2000</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>2.8816000000000001E-2</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>500</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>9.5462888605269594E-2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.123304</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.129631</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.15876999999999999</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.19096299999999999</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.10859099999999999</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.13170399999999999</v>
-      </c>
-      <c r="P23" s="3">
-        <v>7.0632E-2</v>
-      </c>
-      <c r="Q23" s="3">
-        <f>AVERAGE(I23:P23)</f>
-        <v>0.12613223607565871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>8.5849999999999996E-2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.113194</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.116268</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.13111600000000001</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.17562700000000001</v>
-      </c>
-      <c r="N24" s="3">
-        <v>9.0360999999999997E-2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.11490499999999999</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5.3969999999999997E-2</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" ref="Q24:Q25" si="0">AVERAGE(I24:P24)</f>
-        <v>0.11016137500000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="I22" s="3">
         <v>7.3578000000000005E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J22" s="3">
         <v>9.955E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K22" s="3">
         <v>0.102479</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L22" s="3">
         <v>0.105418</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M22" s="3">
         <v>0.15958600000000001</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N22" s="3">
         <v>6.4596000000000001E-2</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O22" s="3">
         <v>9.4871999999999998E-2</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P22" s="3">
         <v>3.721E-2</v>
       </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="1"/>
         <v>9.2161124999999983E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A5BDFA-5658-43E5-8BE2-C52462B6E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="4080" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="4080" windowWidth="28800" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>syn10x10</t>
   </si>
@@ -103,12 +102,15 @@
   </si>
   <si>
     <t>incumbent_10x10[1,99]_fdd-divide-mwkr_yaoxin_1_128_4_4_gin+dghan_1_0_5e-05_10_500_64_128000_10</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -168,8 +170,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,11 +559,21 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>0.17100000000000001</v>
@@ -596,11 +608,21 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>0.153</v>
@@ -714,19 +736,13 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="2">
-        <v>500</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.2976110000000003E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7.0071949999999994E-2</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -742,17 +758,21 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C9" s="3">
-        <v>2.9983530000000001E-2</v>
+        <v>3.2976110000000003E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>6.097064E-2</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>7.0071949999999994E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.1929960000000005E-2</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -769,15 +789,17 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="3">
-        <v>2.768058E-2</v>
+        <v>2.9983530000000001E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>5.418485E-2</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>6.097064E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.0027680000000004E-2</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -792,14 +814,19 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="2">
-        <v>500</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.768058E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.418485E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.0445450000000007E-2</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -816,8 +843,9 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="2">
-        <v>1000</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -834,9 +862,11 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -854,18 +884,11 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="2">
-        <v>500</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.5181710000000004E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.11535305999999999</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -883,14 +906,9 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.5181710000000004E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.11535305999999999</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -908,14 +926,9 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.5181710000000004E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.11535305999999999</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -932,47 +945,30 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="C17" s="3">
-        <v>4.5740999999999997E-2</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>0.10166699999999999</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.13650899999999999</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.138818</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.162855</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.194776</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.10628600000000001</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.13186200000000001</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7.6374999999999998E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <f>AVERAGE(I17:P17)</f>
-        <v>0.13114350000000002</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -980,41 +976,24 @@
         <v>1000</v>
       </c>
       <c r="C18" s="3">
-        <v>3.9321000000000002E-2</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>8.7012000000000006E-2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.11302</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.120848</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.134412</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.176898</v>
-      </c>
-      <c r="N18" s="3">
-        <v>8.3945000000000006E-2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.113331</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5.9744999999999999E-2</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" ref="Q18:Q19" si="0">AVERAGE(I18:P18)</f>
-        <v>0.11115137500000001</v>
-      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1022,93 +1001,55 @@
         <v>2000</v>
       </c>
       <c r="C19" s="3">
-        <v>3.1038E-2</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.11535305999999999</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>7.7551999999999996E-2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.10136100000000001</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.11282399999999999</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.11575199999999999</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.157559</v>
-      </c>
-      <c r="N19" s="3">
-        <v>6.4685000000000006E-2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>9.6091999999999997E-2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>4.2016999999999999E-2</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="0"/>
-        <v>9.5980249999999989E-2</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="2">
-        <v>500</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.0811E-2</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>9.5462888605269594E-2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.123304</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.129631</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.15876999999999999</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.19096299999999999</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.10859099999999999</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.13170399999999999</v>
-      </c>
-      <c r="P20" s="3">
-        <v>7.0632E-2</v>
-      </c>
-      <c r="Q20" s="3">
-        <f>AVERAGE(I20:P20)</f>
-        <v>0.12613223607565871</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C21" s="3">
-        <v>3.3570999999999997E-2</v>
+        <v>4.5740999999999997E-2</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1116,41 +1057,41 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>8.5849999999999996E-2</v>
+        <v>0.10166699999999999</v>
       </c>
       <c r="J21" s="3">
-        <v>0.113194</v>
+        <v>0.13650899999999999</v>
       </c>
       <c r="K21" s="3">
-        <v>0.116268</v>
+        <v>0.138818</v>
       </c>
       <c r="L21" s="3">
-        <v>0.13111600000000001</v>
+        <v>0.162855</v>
       </c>
       <c r="M21" s="3">
-        <v>0.17562700000000001</v>
+        <v>0.194776</v>
       </c>
       <c r="N21" s="3">
-        <v>9.0360999999999997E-2</v>
+        <v>0.10628600000000001</v>
       </c>
       <c r="O21" s="3">
-        <v>0.11490499999999999</v>
+        <v>0.13186200000000001</v>
       </c>
       <c r="P21" s="3">
-        <v>5.3969999999999997E-2</v>
+        <v>7.6374999999999998E-2</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:Q22" si="1">AVERAGE(I21:P21)</f>
-        <v>0.11016137500000001</v>
+        <f>AVERAGE(I21:P21)</f>
+        <v>0.13114350000000002</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="3">
-        <v>2.8816000000000001E-2</v>
+        <v>3.9321000000000002E-2</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1158,42 +1099,239 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
+        <v>8.7012000000000006E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.11302</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.120848</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.134412</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.176898</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8.3945000000000006E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.113331</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5.9744999999999999E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22:Q23" si="0">AVERAGE(I22:P22)</f>
+        <v>0.11115137500000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.1038E-2</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>7.7551999999999996E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.10136100000000001</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.11282399999999999</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.11575199999999999</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.157559</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6.4685000000000006E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>9.6091999999999997E-2</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.2016999999999999E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5980249999999989E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>500</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4.0811E-2</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>9.5462888605269594E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.123304</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.129631</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.19096299999999999</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.10859099999999999</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.13170399999999999</v>
+      </c>
+      <c r="P25" s="3">
+        <v>7.0632E-2</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>AVERAGE(I25:P25)</f>
+        <v>0.12613223607565871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.3570999999999997E-2</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.113194</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.116268</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.13111600000000001</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.17562700000000001</v>
+      </c>
+      <c r="N26" s="3">
+        <v>9.0360999999999997E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.11490499999999999</v>
+      </c>
+      <c r="P26" s="3">
+        <v>5.3969999999999997E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26:Q27" si="1">AVERAGE(I26:P26)</f>
+        <v>0.11016137500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.8816000000000001E-2</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>7.3578000000000005E-2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J27" s="3">
         <v>9.955E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K27" s="3">
         <v>0.102479</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L27" s="3">
         <v>0.105418</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M27" s="3">
         <v>0.15958600000000001</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N27" s="3">
         <v>6.4596000000000001E-2</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O27" s="3">
         <v>9.4871999999999998E-2</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P27" s="3">
         <v>3.721E-2</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="1"/>
         <v>9.2161124999999983E-2</v>
       </c>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,9 @@
       <c r="E5" s="3">
         <v>0.16112079000000001</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>0.15056555999999999</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -696,7 +698,9 @@
       <c r="E6" s="3">
         <v>0.14983775999999999</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.13339846999999999</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -723,7 +727,9 @@
       <c r="E7" s="3">
         <v>0.13815110999999999</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.1185471</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -956,7 +962,9 @@
       <c r="D17" s="3">
         <v>0.11535305999999999</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.13868217999999999</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -981,7 +989,9 @@
       <c r="D18" s="3">
         <v>0.11535305999999999</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.13868217999999999</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1006,7 +1016,9 @@
       <c r="D19" s="3">
         <v>0.11535305999999999</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>0.13868217999999999</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1326,12 +1338,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E024068-B9CC-4E40-AB38-5C6C54895DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="4080" windowWidth="28800" windowHeight="16770"/>
+    <workbookView xWindow="7860" yWindow="795" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -170,8 +171,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1219,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>9.5462888605269594E-2</v>
+        <v>9.5171000000000006E-2</v>
       </c>
       <c r="J25" s="3">
         <v>0.123304</v>
@@ -1243,7 +1244,7 @@
       </c>
       <c r="Q25" s="3">
         <f>AVERAGE(I25:P25)</f>
-        <v>0.12613223607565871</v>
+        <v>0.12609575000000001</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1260,7 +1261,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>8.5849999999999996E-2</v>
+        <v>7.5553999999999996E-2</v>
       </c>
       <c r="J26" s="3">
         <v>0.113194</v>
@@ -1285,7 +1286,7 @@
       </c>
       <c r="Q26" s="3">
         <f t="shared" ref="Q26:Q27" si="1">AVERAGE(I26:P26)</f>
-        <v>0.11016137500000001</v>
+        <v>0.10887437500000001</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1302,13 +1303,13 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>7.3578000000000005E-2</v>
+        <v>6.7011000000000001E-2</v>
       </c>
       <c r="J27" s="3">
         <v>9.955E-2</v>
       </c>
       <c r="K27" s="3">
-        <v>0.102479</v>
+        <v>0.10761</v>
       </c>
       <c r="L27" s="3">
         <v>0.105418</v>
@@ -1327,7 +1328,7 @@
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="1"/>
-        <v>9.2161124999999983E-2</v>
+        <v>9.1981624999999984E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">

--- a/test_results/tuning_log.xlsx
+++ b/test_results/tuning_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E024068-B9CC-4E40-AB38-5C6C54895DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD786AA-3562-4313-8C1B-BC13A8D8C49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="795" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="2460" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +875,7 @@
       <c r="B13" s="2">
         <v>500</v>
       </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -895,6 +896,7 @@
       <c r="B14" s="2">
         <v>1000</v>
       </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -915,6 +917,7 @@
       <c r="B15" s="2">
         <v>2000</v>
       </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -935,6 +938,7 @@
       <c r="B16" s="2">
         <v>5000</v>
       </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,7 +1223,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>9.5171000000000006E-2</v>
+        <v>9.5463000000000006E-2</v>
       </c>
       <c r="J25" s="3">
         <v>0.123304</v>
@@ -1231,7 +1235,7 @@
         <v>0.15876999999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>0.19096299999999999</v>
+        <v>0.186613</v>
       </c>
       <c r="N25" s="3">
         <v>0.10859099999999999</v>
@@ -1240,11 +1244,11 @@
         <v>0.13170399999999999</v>
       </c>
       <c r="P25" s="3">
-        <v>7.0632E-2</v>
+        <v>7.0554000000000006E-2</v>
       </c>
       <c r="Q25" s="3">
         <f>AVERAGE(I25:P25)</f>
-        <v>0.12609575000000001</v>
+        <v>0.12557874999999999</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1261,7 +1265,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>7.5553999999999996E-2</v>
+        <v>8.5849999999999996E-2</v>
       </c>
       <c r="J26" s="3">
         <v>0.113194</v>
@@ -1273,7 +1277,7 @@
         <v>0.13111600000000001</v>
       </c>
       <c r="M26" s="3">
-        <v>0.17562700000000001</v>
+        <v>0.166847</v>
       </c>
       <c r="N26" s="3">
         <v>9.0360999999999997E-2</v>
@@ -1282,11 +1286,11 @@
         <v>0.11490499999999999</v>
       </c>
       <c r="P26" s="3">
-        <v>5.3969999999999997E-2</v>
+        <v>5.4175000000000001E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" ref="Q26:Q27" si="1">AVERAGE(I26:P26)</f>
-        <v>0.10887437500000001</v>
+        <f t="shared" ref="Q26:Q28" si="1">AVERAGE(I26:P26)</f>
+        <v>0.10908950000000001</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1303,19 +1307,19 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>6.7011000000000001E-2</v>
+        <v>7.1389999999999995E-2</v>
       </c>
       <c r="J27" s="3">
         <v>9.955E-2</v>
       </c>
       <c r="K27" s="3">
-        <v>0.10761</v>
+        <v>0.102479</v>
       </c>
       <c r="L27" s="3">
         <v>0.105418</v>
       </c>
       <c r="M27" s="3">
-        <v>0.15958600000000001</v>
+        <v>0.149227</v>
       </c>
       <c r="N27" s="3">
         <v>6.4596000000000001E-2</v>
@@ -1324,17 +1328,53 @@
         <v>9.4871999999999998E-2</v>
       </c>
       <c r="P27" s="3">
-        <v>3.721E-2</v>
+        <v>3.5038E-2</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="1"/>
-        <v>9.1981624999999984E-2</v>
+        <v>9.0321249999999992E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="2">
         <v>5000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.2353999999999999E-2</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>6.1741999999999998E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>8.6886000000000005E-2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>8.9824000000000001E-2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>9.2197000000000001E-2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.13051599999999999</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3.7137000000000003E-2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>6.5272999999999998E-2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.8312999999999999E-2</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2735999999999995E-2</v>
       </c>
     </row>
   </sheetData>
